--- a/all-MigrationDB1.xlsx
+++ b/all-MigrationDB1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pickles\PycharmProjects\DB_migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pickles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C293706-E9DA-4F3F-88EA-896668A6B40C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E0372-9953-4EDC-9281-56192E57897E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="232">
   <si>
     <t>catalog</t>
   </si>
@@ -661,9 +661,6 @@
   </si>
   <si>
     <t>undergrowth</t>
-  </si>
-  <si>
-    <t>Conditions</t>
   </si>
   <si>
     <t>t_evaluation</t>
@@ -1047,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1059,7 @@
     <col min="8" max="8" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -1084,11 +1081,8 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2576,7 @@
         <v>167</v>
       </c>
       <c r="F76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G76" t="s">
         <v>185</v>
@@ -2636,7 +2630,7 @@
         <v>204</v>
       </c>
       <c r="D79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
         <v>195</v>
@@ -2656,7 +2650,7 @@
         <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E80" t="s">
         <v>195</v>
@@ -2676,7 +2670,7 @@
         <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E81" t="s">
         <v>195</v>
@@ -2696,7 +2690,7 @@
         <v>207</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
         <v>195</v>
@@ -2716,7 +2710,7 @@
         <v>208</v>
       </c>
       <c r="D83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
         <v>167</v>
@@ -2733,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
         <v>213</v>
-      </c>
-      <c r="D84" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>214</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
@@ -2756,19 +2750,19 @@
         <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E85" t="s">
         <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2779,10 +2773,10 @@
         <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E86" t="s">
         <v>167</v>
@@ -2791,7 +2785,7 @@
         <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2802,19 +2796,19 @@
         <v>183</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
         <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G87" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H87" s="1"/>
     </row>
